--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_summary_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_summary_No_lineal_Estacionario_SETAR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Modelo</t>
   </si>
@@ -31,37 +31,40 @@
     <t>ECRPS_Mejor</t>
   </si>
   <si>
+    <t>MCPS</t>
+  </si>
+  <si>
     <t>AV-MCPS</t>
   </si>
   <si>
-    <t>MCPS</t>
-  </si>
-  <si>
     <t>Sieve Bootstrap</t>
   </si>
   <si>
+    <t>DeepAR</t>
+  </si>
+  <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>LSPM</t>
+  </si>
+  <si>
+    <t>Block Bootstrapping</t>
+  </si>
+  <si>
+    <t>AREPD</t>
+  </si>
+  <si>
     <t>EnCQR-LSTM</t>
   </si>
   <si>
-    <t>DeepAR</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
-    <t>Block Bootstrapping</t>
-  </si>
-  <si>
-    <t>LSPM</t>
-  </si>
-  <si>
-    <t>AREPD</t>
-  </si>
-  <si>
     <t>6/10</t>
   </si>
   <si>
-    <t>3/10</t>
+    <t>5/10</t>
+  </si>
+  <si>
+    <t>4/10</t>
   </si>
   <si>
     <t>2/10</t>
@@ -459,10 +462,10 @@
         <v>153.6</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E2">
-        <v>0.6179146643834641</v>
+        <v>0.5951285163941685</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -470,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>153.6</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.5951285163941685</v>
+        <v>0.6179146643834641</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -487,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>76.8</v>
+        <v>102.4</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -504,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>76.8</v>
+        <v>102.4</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5">
-        <v>0.8169932377537791</v>
+        <v>0.5466065573549689</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -521,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>76.8</v>
+        <v>51.2</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="E6">
-        <v>0.5466065573549689</v>
+        <v>0.6395536530884578</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -538,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>51.2</v>
@@ -547,7 +550,7 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>0.6395536530884578</v>
+        <v>0.619475893862211</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -555,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>51.2</v>
@@ -572,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>51.2</v>
+        <v>25.6</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9">
-        <v>0.619475893862211</v>
+        <v>0.6630086419856966</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -589,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>25.6</v>
@@ -598,7 +601,7 @@
         <v>100</v>
       </c>
       <c r="E10">
-        <v>0.6630086419856966</v>
+        <v>0.8169932377537791</v>
       </c>
     </row>
   </sheetData>
